--- a/biology/Zoologie/Euptychia_westwoodi/Euptychia_westwoodi.xlsx
+++ b/biology/Zoologie/Euptychia_westwoodi/Euptychia_westwoodi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia westwoodi est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptychia westwoodi a été décrit par Arthur Gardiner Butler en 1867.
-Synonyme :Euptychia mollis Staudinger, 1876[1].
-Noms vernaculaires
-Euptychia westwoodi se nomme Westwood’s Satyr ou Popular Satyr en anglais[2].
-Sous-espèce
-Euptychia westwoodi muli Brévignon, 2005[3].
+Synonyme :Euptychia mollis Staudinger, 1876.
 </t>
         </is>
       </c>
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euptychia westwoodi est un papillon au dessus beige clair sauf l'apex des antérieures qui est plus foncé. L'ornementation du revers, lignes et ocelles est visible en transparence[3].
-Le revers est beige clair rayé de lignes ocre trois aux ailes antérieures, discale, postdiscale et submarginale, cinq aux ailes postérieures avec à l'apex de l'aile antérieure des ocelles dont un noir cerclé de jaune et pupillé et à l'aile postérieure une ligne submarginale d'ocelles dont deux sont noir cerclés de jaune et pupillés, un proche de l'angle anal et un proche de l'apex.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia westwoodi se nomme Westwood’s Satyr ou Popular Satyr en anglais.
 </t>
         </is>
       </c>
@@ -576,13 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella, Selaginella arthriticum et Selaginella horizontalis[1].
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia westwoodi muli Brévignon, 2005.
 </t>
         </is>
       </c>
@@ -608,16 +628,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia westwoodi est un papillon au dessus beige clair sauf l'apex des antérieures qui est plus foncé. L'ornementation du revers, lignes et ocelles est visible en transparence.
+Le revers est beige clair rayé de lignes ocre trois aux ailes antérieures, discale, postdiscale et submarginale, cinq aux ailes postérieures avec à l'apex de l'aile antérieure des ocelles dont un noir cerclé de jaune et pupillé et à l'aile postérieure une ligne submarginale d'ocelles dont deux sont noir cerclés de jaune et pupillés, un proche de l'angle anal et un proche de l'apex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella, Selaginella arthriticum et Selaginella horizontalis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia westwoodi est présent au Mexique, au Guatemala, à Panama, au Surinam et en Guyane[2],[1],[3].
-Biotope
-Il réside en lisière de forêt[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia westwoodi est présent au Mexique, au Guatemala, à Panama, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_westwoodi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia westwoodi, sur Wikimedia CommonsEuptychia westwoodi, sur Wikispecies
 </t>
